--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4AB1E8-CAA5-4856-8E5C-C78A2B7B34C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -12,12 +13,25 @@
     <sheet name="F02.TCs" sheetId="11" r:id="rId3"/>
     <sheet name="WBT-TCs" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -70,12 +84,6 @@
     <t>Path</t>
   </si>
   <si>
-    <t>1 - 2(F) - …</t>
-  </si>
-  <si>
-    <t>1 - 2(T) - …</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -149,9 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lab03. White-box Testing. Code Coverage </t>
-  </si>
-  <si>
-    <t>1, 2,4, 6, 7</t>
   </si>
   <si>
     <t>#TCs run</t>
@@ -265,28 +270,10 @@
     <t>F02_TC02</t>
   </si>
   <si>
-    <t>F02_Cond01 &gt; 100</t>
-  </si>
-  <si>
-    <t>F02_Cond02 &lt; 20</t>
-  </si>
-  <si>
-    <t>F02_Cond03 == i</t>
-  </si>
-  <si>
-    <t>F02_Condnn &lt; n</t>
-  </si>
-  <si>
     <t>F02_P01</t>
   </si>
   <si>
     <t>F02_P02</t>
-  </si>
-  <si>
-    <t>F02_Pnn</t>
-  </si>
-  <si>
-    <t>F01_TC02</t>
   </si>
   <si>
     <t>F02_P03</t>
@@ -477,30 +464,108 @@
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
+  <si>
+    <t>Mușat Alin</t>
+  </si>
+  <si>
+    <t>Fărcaș Tudor</t>
+  </si>
+  <si>
+    <t>Ficard Antoniu</t>
+  </si>
+  <si>
+    <t>l == null</t>
+  </si>
+  <si>
+    <t>l.size() == 0</t>
+  </si>
+  <si>
+    <t>p.getType().equals(type)</t>
+  </si>
+  <si>
+    <t>F02_P04</t>
+  </si>
+  <si>
+    <t>type: Payment Type</t>
+  </si>
+  <si>
+    <t>total: float</t>
+  </si>
+  <si>
+    <t>F02_TC03</t>
+  </si>
+  <si>
+    <t>F02_TC04</t>
+  </si>
+  <si>
+    <t>Cash: (1, Card, 15.25)</t>
+  </si>
+  <si>
+    <t>Cash: (1, null, 15.25)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>paymentType</t>
+  </si>
+  <si>
+    <t>1,2,3(yes),5</t>
+  </si>
+  <si>
+    <t>1,2,3(no),4(yes),5</t>
+  </si>
+  <si>
+    <t>1,2,3(no),4(no),6,7,8(yes),9,10,6,5</t>
+  </si>
+  <si>
+    <t>1,2,3(no),4(no),6,7,8(no),10,6,5</t>
+  </si>
+  <si>
+    <t>F02_P05</t>
+  </si>
+  <si>
+    <t>F02_P06</t>
+  </si>
+  <si>
+    <t>1,2,3(no),4(no),6,5</t>
+  </si>
+  <si>
+    <t>13 - 10 + 2 = 5</t>
+  </si>
+  <si>
+    <t>4 + 1 = 5</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>(1,Card,15.25)</t>
+  </si>
+  <si>
+    <t>(1,null,15.25)</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>15.25</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -531,13 +596,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="8"/>
       <color indexed="8"/>
@@ -545,14 +603,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="8"/>
       <color indexed="8"/>
@@ -719,7 +769,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1178,32 +1228,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1212,62 +1288,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1283,20 +1335,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1306,185 +1367,233 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,6 +1605,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1504,26 +1616,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>567690</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601778</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>422910</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>847728</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>146049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6187" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88CFEB18-52FC-4E48-3235-E47F0E9DB340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1531,111 +1649,145 @@
           </a:extLst>
         </a:blip>
         <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="567690" y="1211580"/>
-          <a:ext cx="4442460" cy="2369820"/>
+          <a:off x="5034078" y="1303942"/>
+          <a:ext cx="5224350" cy="4182457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
+        <a:effectLst>
+          <a:glow rad="139700">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>621030</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12899</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6188" name="Picture 4"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F5352C-F061-5E57-5DA1-A7598685F8BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5208270" y="1588770"/>
-          <a:ext cx="4724400" cy="4168140"/>
+          <a:off x="571500" y="1231900"/>
+          <a:ext cx="3873699" cy="2311519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751E8EE0-8DCF-37F3-69DD-53A7DA355B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="1320800"/>
+          <a:ext cx="1530350" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ro-RO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1684,7 +1836,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1717,9 +1869,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1752,6 +1921,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1927,129 +2113,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="14" width="8.89453125" style="12"/>
-    <col min="15" max="15" width="19.68359375" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="8.89453125" style="12"/>
+    <col min="1" max="14" width="8.90625" style="12"/>
+    <col min="15" max="15" width="19.6328125" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="8.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B1" s="15"/>
-      <c r="D1" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B2" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N6" s="25"/>
+      <c r="O6" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N7" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N8" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="N9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="44" t="s">
-        <v>49</v>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2062,398 +2260,387 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="12"/>
+    <col min="1" max="1" width="8.90625" style="12"/>
     <col min="2" max="2" width="10" style="12" customWidth="1"/>
-    <col min="3" max="16" width="8.89453125" style="12"/>
-    <col min="17" max="17" width="10.68359375" style="12" customWidth="1"/>
-    <col min="18" max="16384" width="8.89453125" style="12"/>
+    <col min="3" max="15" width="8.90625" style="12"/>
+    <col min="16" max="16" width="15.6328125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="10.6328125" style="12" customWidth="1"/>
+    <col min="18" max="19" width="8.90625" style="12"/>
+    <col min="20" max="20" width="14.36328125" style="12" customWidth="1"/>
+    <col min="21" max="16384" width="8.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B1" s="15"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="52" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="I6" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="Q6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="48" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="I8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="I9" s="36"/>
+      <c r="Q9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="I10" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="Q10" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="44"/>
+      <c r="T10" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
+      <c r="Q13" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="I6" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="Q6" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="I8" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q8" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="41" t="s">
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="I9" s="46"/>
-      <c r="Q9" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="I10" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="58"/>
-      <c r="Q10" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="65"/>
-      <c r="T10" s="41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="61"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="61"/>
-      <c r="Q13" s="48" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
+      <c r="Q15" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
+      <c r="Q16" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="61"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="61"/>
-      <c r="Q15" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="I16" s="59"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="61"/>
-      <c r="Q16" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="R16" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="I17" s="59"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="61"/>
-      <c r="Q17" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="R17" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="61"/>
-      <c r="Q18" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="R18" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
-      <c r="Q19" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="R19" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="61"/>
-      <c r="Q20" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="I21" s="59"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="61"/>
-      <c r="Q21" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="61"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="61"/>
-    </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="64"/>
+      <c r="R16" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
+      <c r="Q17" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+      <c r="Q18" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+      <c r="Q19" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="R19" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
+      <c r="Q20" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="R20" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="53"/>
+      <c r="Q21" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="R21" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="53"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+    </row>
+    <row r="24" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R18:T18"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2464,6 +2651,20 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="C8:E8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2472,495 +2673,391 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AB16"/>
+  <dimension ref="B1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="12"/>
-    <col min="2" max="2" width="12.3125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.20703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.20703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7890625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.20703125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="11.41796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.20703125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9.3125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.68359375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="6.1015625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="6.41796875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="5" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.89453125" style="12"/>
-    <col min="15" max="15" width="11.7890625" style="12" customWidth="1"/>
-    <col min="16" max="16" width="8.7890625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="8.89453125" style="12" customWidth="1"/>
-    <col min="18" max="20" width="8.89453125" style="12"/>
-    <col min="21" max="21" width="9.1015625" style="12" customWidth="1"/>
-    <col min="22" max="22" width="2.20703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="2.1015625" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.5234375" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.20703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.1015625" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.20703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.89453125" style="12"/>
+    <col min="1" max="1" width="8.90625" style="12"/>
+    <col min="2" max="2" width="12.26953125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1796875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="8.90625" style="12"/>
+    <col min="15" max="15" width="9.08984375" style="12" customWidth="1"/>
+    <col min="16" max="16" width="6.26953125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="5.81640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="4.6328125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="6.54296875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="5" style="12" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="6.6328125" style="12" customWidth="1"/>
+    <col min="23" max="16384" width="8.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B1" s="15"/>
-      <c r="D1" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
+      <c r="D1" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B3" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" s="13"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B5" s="14"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="2:28" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="69" t="s">
+    <row r="6" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="109"/>
+    </row>
+    <row r="7" spans="2:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+    </row>
+    <row r="8" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="62"/>
+      <c r="C8" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="58"/>
+      <c r="J8" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="103"/>
+      <c r="L8" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="61">
+        <v>1</v>
+      </c>
+      <c r="R8" s="61">
+        <v>2</v>
+      </c>
+      <c r="S8" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-    </row>
-    <row r="7" spans="2:28" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="67" t="s">
+      <c r="T8" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-    </row>
-    <row r="8" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="69"/>
-      <c r="C8" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="68"/>
-      <c r="P8" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="R8" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="V8" s="67">
-        <v>0</v>
-      </c>
-      <c r="W8" s="67">
-        <v>1</v>
-      </c>
-      <c r="X8" s="67">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="67" t="s">
+      <c r="U8" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="67" t="s">
+      <c r="V8" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="AA8" s="67" t="s">
+    </row>
+    <row r="9" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="62"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AB8" s="67" t="s">
+      <c r="G9" s="38" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="2:28" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="69"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-    </row>
-    <row r="10" spans="2:28" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-    </row>
-    <row r="11" spans="2:28" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-    </row>
-    <row r="12" spans="2:28" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-    </row>
-    <row r="13" spans="2:28" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-    </row>
-    <row r="14" spans="2:28" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-    </row>
-    <row r="15" spans="2:28" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-    </row>
-    <row r="16" spans="2:28" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="25"/>
+      <c r="H9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+    </row>
+    <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="110">
+        <v>15.25</v>
+      </c>
+      <c r="E10" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+    </row>
+    <row r="11" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
+    </row>
+    <row r="12" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="115"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+    </row>
+    <row r="13" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="18"/>
       <c r="C16" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="E6:AB6"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
+  <mergeCells count="26">
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="E6:V6"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2968,270 +3065,186 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:N16"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K9" sqref="K9:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.89453125" style="12"/>
-    <col min="3" max="3" width="7.20703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1015625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.90625" style="12"/>
+    <col min="3" max="3" width="7.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.89453125" style="12"/>
-    <col min="10" max="10" width="7.20703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1015625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1015625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="16.1015625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.89453125" style="12"/>
-    <col min="15" max="15" width="12.3125" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="8.89453125" style="12"/>
+    <col min="9" max="9" width="10.08984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" style="12"/>
+    <col min="13" max="13" width="12.26953125" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" s="15"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="89" t="s">
+      <c r="D1" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="121"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="88" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="76" t="s">
+      <c r="D4" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="76" t="s">
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="78"/>
-    </row>
-    <row r="5" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="90"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="2" t="s">
+      <c r="J4" s="83"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="89"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="85"/>
+      <c r="G5" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="85"/>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="92"/>
-      <c r="K5" s="2" t="s">
+      <c r="C6" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="125"/>
+      <c r="G6" s="124" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="125"/>
+      <c r="I6" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="90"/>
+      <c r="D7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="83"/>
+      <c r="G7" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="83"/>
+      <c r="I7" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="19">
+        <v>3</v>
+      </c>
+      <c r="C8" s="90"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="19">
         <v>4</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="C9" s="90"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="26">
-        <v>9</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="102"/>
-      <c r="K6" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="26">
-        <v>10</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="26">
-        <v>5</v>
-      </c>
-      <c r="F7" s="26">
-        <v>6</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="26">
-        <v>11</v>
-      </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="78"/>
-      <c r="K8" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="26">
-        <v>12</v>
-      </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="2">
-        <v>13</v>
-      </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="92"/>
-      <c r="K10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="91"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="28"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3239,166 +3252,148 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="29"/>
-    </row>
-    <row r="13" spans="2:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="83" t="s">
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="99"/>
+      <c r="H13" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="97"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="70"/>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85" t="s">
+      <c r="L14" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="83" t="s">
+    </row>
+    <row r="15" spans="2:12" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="71"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="76"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="25">
+        <f>SUM(C16:D16)</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="23">
+        <v>2</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0</v>
+      </c>
+      <c r="E16" s="123">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="109" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="110"/>
-    </row>
-    <row r="14" spans="2:14" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="112" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="107" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" s="79" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="111"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="96"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="34">
-        <f>SUM(C16:D16)</f>
+      <c r="H16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="26">
         <v>0</v>
       </c>
-      <c r="C16" s="31">
-        <v>0</v>
-      </c>
-      <c r="D16" s="31">
-        <v>0</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="34">
-        <f>SUM(J16:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="31">
-        <v>0</v>
-      </c>
-      <c r="K16" s="35">
-        <v>0</v>
-      </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16" s="37">
+      <c r="J16" s="122">
+        <v>0.8</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="27">
         <f>C16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
+  <mergeCells count="29">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="L14:L15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3406,6 +3401,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3549,29 +3559,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4AB1E8-CAA5-4856-8E5C-C78A2B7B34C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC61A480-00A2-4E87-A2E6-7BCE13AA2A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -102,12 +102,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>n+1</t>
-  </si>
-  <si>
-    <t>m&lt;n</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -133,12 +127,6 @@
   </si>
   <si>
     <t>&lt;Req02 CFG &gt;</t>
-  </si>
-  <si>
-    <t>1. Evidenţa filmelor din colecţia personală</t>
-  </si>
-  <si>
-    <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
   </si>
   <si>
     <t>Proiectaţi şi implementaţi o aplicaţie Java pentru rezolvarea problemei propuse. Se va evidenţia o arhitectură stratificată.</t>
@@ -207,49 +195,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F02.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> cautarea filmelor care au un anumit regizor (sau parti din numele regizorului);</t>
-    </r>
-  </si>
-  <si>
     <t>F02</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">F02. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>cautarea filmelor care au un anumit regizor (sau parti din numele regizorului).</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">F02. Covered source code </t>
@@ -498,12 +444,6 @@
     <t>F02_TC04</t>
   </si>
   <si>
-    <t>Cash: (1, Card, 15.25)</t>
-  </si>
-  <si>
-    <t>Cash: (1, null, 15.25)</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -522,15 +462,6 @@
     <t>1,2,3(no),4(no),6,7,8(no),10,6,5</t>
   </si>
   <si>
-    <t>F02_P05</t>
-  </si>
-  <si>
-    <t>F02_P06</t>
-  </si>
-  <si>
-    <t>1,2,3(no),4(no),6,5</t>
-  </si>
-  <si>
     <t>13 - 10 + 2 = 5</t>
   </si>
   <si>
@@ -553,6 +484,63 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>1. Gestiunea comenzilor unei pizzerii.</t>
+  </si>
+  <si>
+    <t>Un restaurant doreşte să îşi dezvolte un program pentru gestionarea comenzilor din cadrul unei pizzerii. Programul va permite următoarele operaţii:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>F02.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> validarea tranzactiilor bancare intr o comanda</t>
+    </r>
+  </si>
+  <si>
+    <t>F02. validarea tranzactiilor bancare intr o comanda.</t>
+  </si>
+  <si>
+    <t>F02. validarea tranzactiilor bancare intr o comanda</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,8,9,10,5</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,8,10,5</t>
+  </si>
+  <si>
+    <t>1,2,3,5</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>l = null</t>
+  </si>
+  <si>
+    <t>l.size() = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1, Card, 15.25)</t>
+  </si>
+  <si>
+    <t>(1, null, 15.25)</t>
   </si>
 </sst>
 </file>
@@ -671,13 +659,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="9"/>
@@ -690,6 +671,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1258,7 +1245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1335,11 +1322,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1352,71 +1354,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1460,62 +1546,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1523,77 +1564,17 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2119,8 +2100,8 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2132,34 +2113,34 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B1" s="15"/>
-      <c r="D1" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="D1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" s="37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="O5" s="35"/>
       <c r="P5" s="35"/>
@@ -2170,10 +2151,10 @@
       </c>
       <c r="N6" s="25"/>
       <c r="O6" s="25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.35">
@@ -2182,10 +2163,10 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="N7" s="25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P7" s="25">
         <v>235</v>
@@ -2197,27 +2178,29 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="N8" s="25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P8" s="25">
         <v>233</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
       <c r="N9" s="25" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P9" s="25">
         <v>233</v>
@@ -2225,7 +2208,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2233,7 +2216,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="34" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2251,8 +2234,9 @@
       <c r="B20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2267,7 +2251,7 @@
   <dimension ref="B1:T24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2285,365 +2269,355 @@
     <row r="1" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B1" s="15"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="D1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="B3" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="I6" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="Q6" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="I6" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="Q6" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="I8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
       <c r="T8" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="I9" s="36"/>
-      <c r="Q9" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
+      <c r="Q9" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
       <c r="T9" s="31" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
-      <c r="I10" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
-      <c r="Q10" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="44" t="s">
+      <c r="I10" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
+      <c r="Q10" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="44"/>
+      <c r="S10" s="62"/>
       <c r="T10" s="31" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="58"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="58"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
-      <c r="Q13" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="58"/>
+      <c r="Q13" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="58"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="58"/>
       <c r="Q15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="57" t="s">
+      <c r="R15" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="58"/>
       <c r="Q16" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="R16" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
+        <v>49</v>
+      </c>
+      <c r="R16" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="58"/>
       <c r="Q17" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="R17" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
+        <v>50</v>
+      </c>
+      <c r="R17" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="58"/>
       <c r="Q18" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="R18" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
+        <v>51</v>
+      </c>
+      <c r="R18" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="58"/>
       <c r="Q19" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="R19" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
+        <v>81</v>
+      </c>
+      <c r="R19" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
-      <c r="Q20" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="R20" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="58"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
-      <c r="Q21" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="R21" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="58"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="53"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="58"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="58"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R21:T21"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I10:O24"/>
@@ -2657,14 +2631,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2677,10 +2643,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:V16"/>
+  <dimension ref="B1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2694,346 +2660,364 @@
     <col min="7" max="7" width="11.453125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1796875" style="12" customWidth="1"/>
     <col min="9" max="9" width="9.26953125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="12" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" style="12" customWidth="1"/>
     <col min="12" max="12" width="8.81640625" style="12" customWidth="1"/>
     <col min="13" max="13" width="8.90625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.90625" style="12"/>
-    <col min="15" max="15" width="9.08984375" style="12" customWidth="1"/>
+    <col min="14" max="15" width="8.90625" style="12"/>
     <col min="16" max="16" width="6.26953125" style="12" customWidth="1"/>
     <col min="17" max="17" width="5.81640625" style="12" customWidth="1"/>
     <col min="18" max="18" width="4.6328125" style="12" customWidth="1"/>
     <col min="19" max="19" width="6.54296875" style="12" customWidth="1"/>
     <col min="20" max="20" width="5" style="12" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" style="12" customWidth="1"/>
-    <col min="22" max="22" width="6.6328125" style="12" customWidth="1"/>
-    <col min="23" max="16384" width="8.90625" style="12"/>
+    <col min="21" max="16384" width="8.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B1" s="15"/>
-      <c r="D1" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B3" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
+      <c r="D1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="K3" s="13"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="14"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="62" t="s">
+    <row r="6" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="109"/>
-    </row>
-    <row r="7" spans="2:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="61" t="s">
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+    </row>
+    <row r="7" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-    </row>
-    <row r="8" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="62"/>
-      <c r="C8" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="116" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="103"/>
-      <c r="L8" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" s="61">
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+    </row>
+    <row r="8" spans="2:20" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="68"/>
+      <c r="C8" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="78"/>
+      <c r="F8" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="77"/>
+      <c r="L8" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="73">
         <v>0</v>
       </c>
-      <c r="Q8" s="61">
+      <c r="Q8" s="73">
         <v>1</v>
       </c>
-      <c r="R8" s="61">
+      <c r="R8" s="73">
         <v>2</v>
       </c>
-      <c r="S8" s="61" t="s">
+      <c r="S8" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="61" t="s">
+      <c r="T8" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="61" t="s">
+    </row>
+    <row r="9" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="68"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="61" t="s">
+      <c r="G9" s="38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="62"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>26</v>
-      </c>
       <c r="H9" s="38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-    </row>
-    <row r="10" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="112" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="110">
+        <v>24</v>
+      </c>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+    </row>
+    <row r="10" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="39">
         <v>15.25</v>
       </c>
-      <c r="E10" s="113" t="s">
-        <v>98</v>
+      <c r="E10" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="O10" s="17"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114" t="s">
-        <v>110</v>
-      </c>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-    </row>
-    <row r="11" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="110" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="113" t="s">
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42" t="s">
         <v>99</v>
+      </c>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>106</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" s="114"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="114"/>
-    </row>
-    <row r="12" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="112" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="16"/>
+        <v>99</v>
+      </c>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="123">
+        <v>0</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
+      <c r="L12" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
-    </row>
-    <row r="13" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="112" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="113"/>
+      <c r="P12" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+    </row>
+    <row r="13" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>108</v>
+      </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="114"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="P13" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" s="18"/>
       <c r="C16" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="24">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
     <mergeCell ref="L7:O7"/>
-    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="E6:T6"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -3041,23 +3025,12 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3072,12 +3045,13 @@
   <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.90625" style="12"/>
+    <col min="1" max="1" width="8.90625" style="12"/>
+    <col min="2" max="2" width="20" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.1796875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" style="12" customWidth="1"/>
@@ -3095,59 +3069,59 @@
     <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" s="15"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="D1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="121"/>
+      <c r="B3" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="95"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="82" t="s">
+      <c r="D4" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="82" t="s">
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="83"/>
+      <c r="J4" s="84"/>
     </row>
     <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="89"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="80"/>
+      <c r="G5" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="80"/>
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3159,55 +3133,55 @@
       <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="124" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="125"/>
-      <c r="G6" s="124" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="125"/>
+      <c r="E6" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="82"/>
       <c r="I6" s="20" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="19">
         <v>2</v>
       </c>
-      <c r="C7" s="90"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="83"/>
+        <v>48</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="84"/>
+      <c r="G7" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="84"/>
       <c r="I7" s="19" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="19">
         <v>3</v>
       </c>
-      <c r="C8" s="90"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="10"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -3220,7 +3194,7 @@
       <c r="B9" s="19">
         <v>4</v>
       </c>
-      <c r="C9" s="90"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="10"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -3233,7 +3207,7 @@
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="9"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3260,73 +3234,73 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="119"/>
+      <c r="H13" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="98"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="105"/>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98" t="s">
+      <c r="H14" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="96" t="s">
+      <c r="I14" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="97"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="69" t="s">
+      <c r="K14" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="70"/>
-    </row>
-    <row r="14" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="74" t="s">
+      <c r="L14" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="79" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="15" spans="2:12" ht="100" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="71"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="76"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="111"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="25">
@@ -3339,24 +3313,24 @@
       <c r="D16" s="23">
         <v>0</v>
       </c>
-      <c r="E16" s="123">
-        <v>0.8</v>
+      <c r="E16" s="45">
+        <v>1</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I16" s="26">
         <v>0</v>
       </c>
-      <c r="J16" s="122">
-        <v>0.8</v>
+      <c r="J16" s="44">
+        <v>1</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L16" s="27">
         <f>C16</f>
@@ -3365,20 +3339,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="E4:H4"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
@@ -3394,6 +3354,20 @@
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3407,15 +3381,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3559,6 +3524,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>
@@ -3569,14 +3543,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3592,4 +3558,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>